--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H2">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I2">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J2">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>301.4627303107449</v>
+        <v>528.7237588979591</v>
       </c>
       <c r="R2">
-        <v>2713.164572796704</v>
+        <v>4758.513830081632</v>
       </c>
       <c r="S2">
-        <v>0.003763636869415552</v>
+        <v>0.005390708545511142</v>
       </c>
       <c r="T2">
-        <v>0.003763636869415552</v>
+        <v>0.005390708545511142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H3">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I3">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J3">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>1066.45562096948</v>
+        <v>1130.22270315556</v>
       </c>
       <c r="R3">
-        <v>9598.10058872532</v>
+        <v>10172.00432840004</v>
       </c>
       <c r="S3">
-        <v>0.01331425510058525</v>
+        <v>0.01152341100942892</v>
       </c>
       <c r="T3">
-        <v>0.01331425510058525</v>
+        <v>0.01152341100942892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H4">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I4">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J4">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>417.0509073502059</v>
+        <v>727.405062718874</v>
       </c>
       <c r="R4">
-        <v>3753.458166151853</v>
+        <v>6546.645564469866</v>
       </c>
       <c r="S4">
-        <v>0.00520670720957276</v>
+        <v>0.007416403408501792</v>
       </c>
       <c r="T4">
-        <v>0.005206707209572761</v>
+        <v>0.007416403408501792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H5">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I5">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J5">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>110.858162962078</v>
+        <v>105.490972825292</v>
       </c>
       <c r="R5">
-        <v>997.7234666587018</v>
+        <v>949.4187554276282</v>
       </c>
       <c r="S5">
-        <v>0.001384018080675106</v>
+        <v>0.00107555425515375</v>
       </c>
       <c r="T5">
-        <v>0.001384018080675106</v>
+        <v>0.00107555425515375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H6">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I6">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J6">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>313.000903881018</v>
+        <v>400.241609142694</v>
       </c>
       <c r="R6">
-        <v>2817.008134929161</v>
+        <v>3602.174482284246</v>
       </c>
       <c r="S6">
-        <v>0.003907686170004162</v>
+        <v>0.004080743160042206</v>
       </c>
       <c r="T6">
-        <v>0.003907686170004162</v>
+        <v>0.004080743160042206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H7">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I7">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J7">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>308.6189452007479</v>
+        <v>510.1365942389709</v>
       </c>
       <c r="R7">
-        <v>2777.570506806731</v>
+        <v>4591.229348150739</v>
       </c>
       <c r="S7">
-        <v>0.003852979237467859</v>
+        <v>0.005201199400749279</v>
       </c>
       <c r="T7">
-        <v>0.003852979237467859</v>
+        <v>0.005201199400749279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I8">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J8">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>8645.214497327946</v>
+        <v>14307.0380467605</v>
       </c>
       <c r="R8">
-        <v>77806.93047595152</v>
+        <v>128763.3424208445</v>
       </c>
       <c r="S8">
-        <v>0.1079319091703641</v>
+        <v>0.1458702601532035</v>
       </c>
       <c r="T8">
-        <v>0.1079319091703641</v>
+        <v>0.1458702601532034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I9">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J9">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>30583.34138239446</v>
@@ -1013,10 +1013,10 @@
         <v>275250.0724415501</v>
       </c>
       <c r="S9">
-        <v>0.3818203036178086</v>
+        <v>0.3118185573578067</v>
       </c>
       <c r="T9">
-        <v>0.3818203036178086</v>
+        <v>0.3118185573578066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I10">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J10">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>11960.00098131953</v>
+        <v>19683.26887639192</v>
       </c>
       <c r="R10">
-        <v>107640.0088318758</v>
+        <v>177149.4198875272</v>
       </c>
       <c r="S10">
-        <v>0.1493156404612314</v>
+        <v>0.2006846939443807</v>
       </c>
       <c r="T10">
-        <v>0.1493156404612314</v>
+        <v>0.2006846939443806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I11">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J11">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>3179.141237787499</v>
+        <v>2854.540459742251</v>
       </c>
       <c r="R11">
-        <v>28612.27114008749</v>
+        <v>25690.86413768026</v>
       </c>
       <c r="S11">
-        <v>0.03969025677994384</v>
+        <v>0.0291040366370403</v>
       </c>
       <c r="T11">
-        <v>0.03969025677994383</v>
+        <v>0.02910403663704029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I12">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J12">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>8976.101122416194</v>
+        <v>10830.36620453122</v>
       </c>
       <c r="R12">
-        <v>80784.91010174573</v>
+        <v>97473.29584078101</v>
       </c>
       <c r="S12">
-        <v>0.1120628911345191</v>
+        <v>0.1104231589128364</v>
       </c>
       <c r="T12">
-        <v>0.1120628911345191</v>
+        <v>0.1104231589128364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I13">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J13">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>8850.437254546647</v>
+        <v>13804.07734661753</v>
       </c>
       <c r="R13">
-        <v>79653.93529091982</v>
+        <v>124236.6961195577</v>
       </c>
       <c r="S13">
-        <v>0.1104940299828282</v>
+        <v>0.1407422240120466</v>
       </c>
       <c r="T13">
-        <v>0.1104940299828282</v>
+        <v>0.1407422240120466</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H14">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I14">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J14">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>5.179099015594445</v>
+        <v>1.294879775715667</v>
       </c>
       <c r="R14">
-        <v>46.61189114035</v>
+        <v>11.653917981441</v>
       </c>
       <c r="S14">
-        <v>6.465889825038277E-05</v>
+        <v>1.320220503597071E-05</v>
       </c>
       <c r="T14">
-        <v>6.465889825038278E-05</v>
+        <v>1.32022050359707E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H15">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I15">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J15">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>18.32159899515556</v>
+        <v>2.767990837826667</v>
       </c>
       <c r="R15">
-        <v>164.8943909564</v>
+        <v>24.91191754044</v>
       </c>
       <c r="S15">
-        <v>0.0002287375471380338</v>
+        <v>2.822160270321524E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002287375471380338</v>
+        <v>2.822160270321523E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H16">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I16">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J16">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>7.164892129397779</v>
+        <v>1.781463549947334</v>
       </c>
       <c r="R16">
-        <v>64.48402916458001</v>
+        <v>16.033171949526</v>
       </c>
       <c r="S16">
-        <v>8.945069977900891E-05</v>
+        <v>1.816326696238196E-05</v>
       </c>
       <c r="T16">
-        <v>8.945069977900894E-05</v>
+        <v>1.816326696238196E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H17">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I17">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J17">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>1.904531953504445</v>
+        <v>0.2583544335453334</v>
       </c>
       <c r="R17">
-        <v>17.14078758154</v>
+        <v>2.325189901908</v>
       </c>
       <c r="S17">
-        <v>2.377728972268207E-05</v>
+        <v>2.634104159772222E-06</v>
       </c>
       <c r="T17">
-        <v>2.377728972268207E-05</v>
+        <v>2.634104159772222E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H18">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I18">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J18">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>5.377323662860001</v>
+        <v>0.9802184153006668</v>
       </c>
       <c r="R18">
-        <v>48.39591296574</v>
+        <v>8.821965737706</v>
       </c>
       <c r="S18">
-        <v>6.713365056920681E-05</v>
+        <v>9.9940123720608E-06</v>
       </c>
       <c r="T18">
-        <v>6.713365056920681E-05</v>
+        <v>9.994012372060798E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H19">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I19">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J19">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>5.302042058848889</v>
+        <v>1.249358568847667</v>
       </c>
       <c r="R19">
-        <v>47.71837852964001</v>
+        <v>11.244227119629</v>
       </c>
       <c r="S19">
-        <v>6.619379103780502E-05</v>
+        <v>1.273808449147921E-05</v>
       </c>
       <c r="T19">
-        <v>6.619379103780504E-05</v>
+        <v>1.273808449147921E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H20">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I20">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J20">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>627.3761117686433</v>
+        <v>395.9057881678398</v>
       </c>
       <c r="R20">
-        <v>5646.385005917789</v>
+        <v>3563.152093510558</v>
       </c>
       <c r="S20">
-        <v>0.007832529954230559</v>
+        <v>0.004036536432450334</v>
       </c>
       <c r="T20">
-        <v>0.007832529954230559</v>
+        <v>0.004036536432450334</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H21">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I21">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J21">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>2219.407951914907</v>
+        <v>846.3052824231911</v>
       </c>
       <c r="R21">
-        <v>19974.67156723416</v>
+        <v>7616.747541808721</v>
       </c>
       <c r="S21">
-        <v>0.02770838566840671</v>
+        <v>0.008628674314880553</v>
       </c>
       <c r="T21">
-        <v>0.02770838566840671</v>
+        <v>0.008628674314880552</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H22">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I22">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J22">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>867.9274429487614</v>
+        <v>544.6773855467542</v>
       </c>
       <c r="R22">
-        <v>7811.346986538852</v>
+        <v>4902.096469920788</v>
       </c>
       <c r="S22">
-        <v>0.01083571332646121</v>
+        <v>0.005553366928192509</v>
       </c>
       <c r="T22">
-        <v>0.01083571332646121</v>
+        <v>0.005553366928192508</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H23">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I23">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J23">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>230.7076671310974</v>
+        <v>78.99112918254488</v>
       </c>
       <c r="R23">
-        <v>2076.369004179876</v>
+        <v>710.9201626429041</v>
       </c>
       <c r="S23">
-        <v>0.002880289318604702</v>
+        <v>0.0008053698135137143</v>
       </c>
       <c r="T23">
-        <v>0.002880289318604702</v>
+        <v>0.0008053698135137144</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H24">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I24">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J24">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>651.388282241484</v>
+        <v>299.6989771284031</v>
       </c>
       <c r="R24">
-        <v>5862.494540173357</v>
+        <v>2697.290794155628</v>
       </c>
       <c r="S24">
-        <v>0.0081323119206883</v>
+        <v>0.003055640700645782</v>
       </c>
       <c r="T24">
-        <v>0.0081323119206883</v>
+        <v>0.003055640700645782</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H25">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I25">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J25">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>642.2689586158907</v>
+        <v>381.9878093551224</v>
       </c>
       <c r="R25">
-        <v>5780.420627543017</v>
+        <v>3437.890284196102</v>
       </c>
       <c r="S25">
-        <v>0.008018460956139426</v>
+        <v>0.003894632903321357</v>
       </c>
       <c r="T25">
-        <v>0.008018460956139428</v>
+        <v>0.003894632903321357</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H26">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I26">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J26">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>3.155985210886666</v>
+        <v>7.258006759588668</v>
       </c>
       <c r="R26">
-        <v>28.40386689798</v>
+        <v>65.32206083629801</v>
       </c>
       <c r="S26">
-        <v>3.940116341008243E-05</v>
+        <v>7.400045563271793E-05</v>
       </c>
       <c r="T26">
-        <v>3.940116341008244E-05</v>
+        <v>7.400045563271791E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H27">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I27">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J27">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>11.16462444421333</v>
+        <v>15.51502818114667</v>
       </c>
       <c r="R27">
-        <v>100.48161999792</v>
+        <v>139.63525363032</v>
       </c>
       <c r="S27">
-        <v>0.0001393856950346931</v>
+        <v>0.0001581865645195927</v>
       </c>
       <c r="T27">
-        <v>0.0001393856950346931</v>
+        <v>0.0001581865645195926</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H28">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I28">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J28">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>4.366067057202667</v>
+        <v>9.985386079825334</v>
       </c>
       <c r="R28">
-        <v>39.294603514824</v>
+        <v>89.868474718428</v>
       </c>
       <c r="S28">
-        <v>5.450853222847933E-05</v>
+        <v>0.0001018079955077847</v>
       </c>
       <c r="T28">
-        <v>5.450853222847934E-05</v>
+        <v>0.0001018079955077847</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H29">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I29">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J29">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>1.160563770034667</v>
+        <v>1.448117624669333</v>
       </c>
       <c r="R29">
-        <v>10.445073930312</v>
+        <v>13.033058622024</v>
       </c>
       <c r="S29">
-        <v>1.448915622076385E-05</v>
+        <v>1.47645720905023E-05</v>
       </c>
       <c r="T29">
-        <v>1.448915622076385E-05</v>
+        <v>1.47645720905023E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H30">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I30">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J30">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>3.276777274008</v>
+        <v>5.494279868718667</v>
       </c>
       <c r="R30">
-        <v>29.490995466072</v>
+        <v>49.448518818468</v>
       </c>
       <c r="S30">
-        <v>4.090920210470849E-05</v>
+        <v>5.601802631579432E-05</v>
       </c>
       <c r="T30">
-        <v>4.090920210470849E-05</v>
+        <v>5.601802631579431E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H31">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I31">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J31">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>3.230902957221333</v>
+        <v>7.002853166684666</v>
       </c>
       <c r="R31">
-        <v>29.078126614992</v>
+        <v>63.025678500162</v>
       </c>
       <c r="S31">
-        <v>4.033648032965E-05</v>
+        <v>7.139898628215876E-05</v>
       </c>
       <c r="T31">
-        <v>4.033648032965001E-05</v>
+        <v>7.139898628215876E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H32">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I32">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J32">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N32">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q32">
-        <v>9.390475614204998</v>
+        <v>2.037863026054223</v>
       </c>
       <c r="R32">
-        <v>84.51428052784499</v>
+        <v>18.340767234488</v>
       </c>
       <c r="S32">
-        <v>0.0001172361844083978</v>
+        <v>2.077743896364574E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001172361844083978</v>
+        <v>2.077743896364574E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H33">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I33">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J33">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q33">
-        <v>33.21977974532</v>
+        <v>4.356223867768889</v>
       </c>
       <c r="R33">
-        <v>298.97801770788</v>
+        <v>39.20601480992</v>
       </c>
       <c r="S33">
-        <v>0.0004147351406075089</v>
+        <v>4.441474935623893E-05</v>
       </c>
       <c r="T33">
-        <v>0.0004147351406075089</v>
+        <v>4.441474935623892E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H34">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I34">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J34">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N34">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q34">
-        <v>12.991013420854</v>
+        <v>2.803641518529778</v>
       </c>
       <c r="R34">
-        <v>116.919120787686</v>
+        <v>25.232773666768</v>
       </c>
       <c r="S34">
-        <v>0.0001621874021753848</v>
+        <v>2.858508632937216E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001621874021753848</v>
+        <v>2.858508632937215E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H35">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I35">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J35">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N35">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q35">
-        <v>3.453199255702</v>
+        <v>0.4065944635271111</v>
       </c>
       <c r="R35">
-        <v>31.078793301318</v>
+        <v>3.659350171744</v>
       </c>
       <c r="S35">
-        <v>4.311175720727278E-05</v>
+        <v>4.145514954088017E-06</v>
       </c>
       <c r="T35">
-        <v>4.311175720727278E-05</v>
+        <v>4.145514954088017E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H36">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I36">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J36">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N36">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q36">
-        <v>9.749886336162</v>
+        <v>1.542653537000889</v>
       </c>
       <c r="R36">
-        <v>87.74897702545799</v>
+        <v>13.883881833008</v>
       </c>
       <c r="S36">
-        <v>0.0001217232778644489</v>
+        <v>1.572843184124553E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001217232778644489</v>
+        <v>1.572843184124552E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H37">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I37">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J37">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N37">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q37">
-        <v>9.613389608732</v>
+        <v>1.966222410363555</v>
       </c>
       <c r="R37">
-        <v>86.520506478588</v>
+        <v>17.696001693272</v>
       </c>
       <c r="S37">
-        <v>0.0001200191729643819</v>
+        <v>2.004701277660562E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001200191729643819</v>
+        <v>2.004701277660562E-05</v>
       </c>
     </row>
   </sheetData>
